--- a/admin_pemilos/Data_Siswa.xlsx
+++ b/admin_pemilos/Data_Siswa.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
   <si>
     <t>No</t>
   </si>
@@ -30,18 +30,6 @@
   </si>
   <si>
     <t>Password</t>
-  </si>
-  <si>
-    <t>AHMAD SHOLEH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XI TAV </t>
-  </si>
-  <si>
-    <t>HBD</t>
-  </si>
-  <si>
-    <t>RP9SR</t>
   </si>
 </sst>
 </file>
@@ -397,10 +385,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:C3"/>
+      <selection activeCell="A1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -422,40 +410,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>12529</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>12529</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/admin_pemilos/Data_Siswa.xlsx
+++ b/admin_pemilos/Data_Siswa.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>No</t>
   </si>
@@ -30,6 +30,15 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>asdad</t>
+  </si>
+  <si>
+    <t>XII RPL 2</t>
+  </si>
+  <si>
+    <t>DNX78</t>
   </si>
 </sst>
 </file>
@@ -385,10 +394,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:C1"/>
+      <selection activeCell="A1" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -408,6 +417,23 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>21313</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
